--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169027.1587712531</v>
+        <v>164022.1399386267</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.1787246</v>
+        <v>12396667.49869666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.3594104</v>
+        <v>18482261.47781499</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3811244.760647546</v>
+        <v>3927870.176942094</v>
       </c>
     </row>
     <row r="11">
@@ -2087,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F20" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="H20" t="n">
-        <v>130.7084367930148</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>48.92535853381431</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>207.9625118881446</v>
@@ -2220,7 +2222,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>101.5274582587797</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U22" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V22" t="n">
-        <v>124.02145965477</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>37.70120739332346</v>
+      </c>
+      <c r="F23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>37.70120739332342</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>3.08303901136961</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>147.3724249767031</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.761703922407231</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>28.27372296392322</v>
       </c>
       <c r="T25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2555,73 +2557,73 @@
         <v>229.9609751381512</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>164.9366423243501</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>202.5496269016835</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2639,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -2646,10 +2648,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>28.42782658817351</v>
+        <v>19.50646340470481</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U28" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W28" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="X28" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="H29" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>202.5496269016835</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2886,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>21.74563143911153</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.8354385413519</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="U31" t="n">
-        <v>184.9448927584505</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>28.27372296392322</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>139.4038155149886</v>
+      </c>
+      <c r="H32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D32" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="E32" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>202.5496269016835</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3114,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>75.17006787552022</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>99.22035718661247</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.755913384879197</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,11 +3265,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="C35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>173.6320210463239</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3348,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>128.7811717219754</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>27.20944453623403</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>78.56977554305718</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,67 +3505,67 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D38" t="n">
-        <v>173.6320210463239</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="V38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F38" t="n">
+      <c r="W38" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>221.2655964161775</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.2553380472942703</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>47.2408072013706</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>146.8233554024207</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>133.3309682944391</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.5496269016834</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>147.240371839454</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>128.1915198828009</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.84173848903534</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="U43" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W43" t="n">
         <v>229.9609751381512</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="46">
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>35.9781135401345</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>521.0465322227953</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C20" t="n">
-        <v>521.0465322227953</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D20" t="n">
-        <v>521.0465322227953</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E20" t="n">
-        <v>521.0465322227953</v>
+        <v>455.276274010885</v>
       </c>
       <c r="F20" t="n">
-        <v>288.7627189519355</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G20" t="n">
-        <v>288.7627189519355</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H20" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I20" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K20" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L20" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M20" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N20" t="n">
-        <v>390.7080163066498</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O20" t="n">
-        <v>507.3369750248864</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P20" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q20" t="n">
         <v>919.8439005526046</v>
@@ -5777,25 +5779,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S20" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T20" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U20" t="n">
-        <v>753.3303454936552</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V20" t="n">
-        <v>753.3303454936552</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W20" t="n">
-        <v>753.3303454936552</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X20" t="n">
-        <v>753.3303454936552</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y20" t="n">
-        <v>521.0465322227953</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="C21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="D21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="E21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="F21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="G21" t="n">
         <v>18.39687801105209</v>
@@ -5835,19 +5837,19 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L21" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M21" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="N21" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O21" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P21" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q21" t="n">
         <v>919.8439005526046</v>
@@ -5859,22 +5861,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T21" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U21" t="n">
-        <v>532.7969454301549</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V21" t="n">
-        <v>310.256943801222</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W21" t="n">
-        <v>207.7039556610404</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y21" t="n">
-        <v>18.39687801105209</v>
+        <v>67.81643208561201</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.1010829719772</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C22" t="n">
-        <v>206.1010829719772</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D22" t="n">
-        <v>206.1010829719772</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E22" t="n">
-        <v>206.1010829719772</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F22" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G22" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H22" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I22" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J22" t="n">
         <v>18.39687801105209</v>
@@ -5917,7 +5919,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M22" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N22" t="n">
         <v>633.8407713642671</v>
@@ -5935,25 +5937,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S22" t="n">
-        <v>795.9429111851816</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T22" t="n">
-        <v>795.9429111851816</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U22" t="n">
-        <v>563.6590979143218</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V22" t="n">
-        <v>438.3848962428369</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W22" t="n">
-        <v>438.3848962428369</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X22" t="n">
-        <v>206.1010829719772</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.1010829719772</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5968,46 @@
         <v>521.0465322227953</v>
       </c>
       <c r="C23" t="n">
-        <v>288.7627189519355</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="D23" t="n">
-        <v>288.7627189519355</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="E23" t="n">
-        <v>288.7627189519355</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F23" t="n">
-        <v>288.7627189519355</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G23" t="n">
-        <v>56.47890568107576</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H23" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I23" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J23" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K23" t="n">
-        <v>246.0582433978217</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L23" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M23" t="n">
-        <v>246.0582433978217</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N23" t="n">
-        <v>473.7196087845913</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O23" t="n">
-        <v>692.182535165835</v>
+        <v>846.030747080189</v>
       </c>
       <c r="P23" t="n">
-        <v>919.8439005526046</v>
+        <v>846.030747080189</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
@@ -6023,7 +6025,7 @@
         <v>753.3303454936552</v>
       </c>
       <c r="V23" t="n">
-        <v>521.0465322227953</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W23" t="n">
         <v>521.0465322227953</v>
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>262.8885020560559</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C24" t="n">
-        <v>262.8885020560559</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D24" t="n">
-        <v>262.8885020560559</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E24" t="n">
-        <v>262.8885020560559</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F24" t="n">
-        <v>138.4566959391877</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G24" t="n">
         <v>18.39687801105209</v>
@@ -6072,13 +6074,13 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L24" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M24" t="n">
         <v>246.0582433978217</v>
       </c>
-      <c r="M24" t="n">
-        <v>464.5211697790654</v>
-      </c>
       <c r="N24" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O24" t="n">
         <v>692.182535165835</v>
@@ -6090,28 +6092,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S24" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T24" t="n">
-        <v>742.8600887515131</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U24" t="n">
-        <v>742.8600887515131</v>
+        <v>580.8981877298812</v>
       </c>
       <c r="V24" t="n">
-        <v>742.8600887515131</v>
+        <v>358.3581861009482</v>
       </c>
       <c r="W24" t="n">
-        <v>742.8600887515131</v>
+        <v>358.3581861009482</v>
       </c>
       <c r="X24" t="n">
-        <v>593.99905342151</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="Y24" t="n">
-        <v>414.6848364970172</v>
+        <v>169.0511084509599</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C25" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D25" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E25" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F25" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G25" t="n">
-        <v>20.17637692257455</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H25" t="n">
         <v>18.39687801105209</v>
@@ -6172,25 +6174,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S25" t="n">
-        <v>717.0278167351539</v>
+        <v>891.2845844274296</v>
       </c>
       <c r="T25" t="n">
-        <v>484.7440034642941</v>
+        <v>891.2845844274296</v>
       </c>
       <c r="U25" t="n">
-        <v>252.4601901934343</v>
+        <v>659.0007711565698</v>
       </c>
       <c r="V25" t="n">
-        <v>252.4601901934343</v>
+        <v>426.71695788571</v>
       </c>
       <c r="W25" t="n">
-        <v>20.17637692257455</v>
+        <v>426.71695788571</v>
       </c>
       <c r="X25" t="n">
-        <v>20.17637692257455</v>
+        <v>426.71695788571</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.17637692257455</v>
+        <v>203.6048967023534</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>250.6806912819119</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="C26" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="D26" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="E26" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="F26" t="n">
         <v>18.39687801105209</v>
@@ -6230,46 +6232,46 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L26" t="n">
-        <v>507.3369750248864</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M26" t="n">
-        <v>507.3369750248864</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N26" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O26" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R26" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S26" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T26" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U26" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V26" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W26" t="n">
-        <v>715.2483178236314</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="X26" t="n">
-        <v>715.2483178236314</v>
+        <v>417.283360296407</v>
       </c>
       <c r="Y26" t="n">
-        <v>482.9645045527716</v>
+        <v>417.283360296407</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>588.7333491871505</v>
+        <v>537.9303202449302</v>
       </c>
       <c r="C27" t="n">
-        <v>438.0791187472427</v>
+        <v>387.2760898050224</v>
       </c>
       <c r="D27" t="n">
-        <v>307.990151368723</v>
+        <v>387.2760898050224</v>
       </c>
       <c r="E27" t="n">
-        <v>171.5436604796107</v>
+        <v>250.8295989159101</v>
       </c>
       <c r="F27" t="n">
-        <v>47.11185436274251</v>
+        <v>126.3977927990419</v>
       </c>
       <c r="G27" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H27" t="n">
         <v>18.39687801105209</v>
@@ -6306,19 +6308,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K27" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L27" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M27" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="N27" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="O27" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="N27" t="n">
-        <v>464.5211697790654</v>
-      </c>
-      <c r="O27" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="P27" t="n">
         <v>692.182535165835</v>
@@ -6342,13 +6344,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W27" t="n">
-        <v>919.8439005526046</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="X27" t="n">
-        <v>919.8439005526046</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="Y27" t="n">
-        <v>740.5296836281118</v>
+        <v>689.7266546858915</v>
       </c>
     </row>
     <row r="28">
@@ -6391,7 +6393,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M28" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N28" t="n">
         <v>633.8407713642671</v>
@@ -6412,16 +6414,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T28" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U28" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V28" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W28" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X28" t="n">
         <v>18.39687801105209</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>715.2483178236314</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C29" t="n">
-        <v>482.9645045527716</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D29" t="n">
-        <v>482.9645045527716</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E29" t="n">
-        <v>482.9645045527716</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F29" t="n">
-        <v>482.9645045527716</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G29" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H29" t="n">
         <v>18.39687801105209</v>
@@ -6467,16 +6469,16 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L29" t="n">
-        <v>618.3693816934194</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M29" t="n">
-        <v>618.3693816934194</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N29" t="n">
-        <v>846.030747080189</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P29" t="n">
         <v>919.8439005526046</v>
@@ -6497,16 +6499,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V29" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W29" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X29" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y29" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>321.1053601114104</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="C30" t="n">
-        <v>170.4511296715026</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="D30" t="n">
-        <v>40.36216229298293</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="E30" t="n">
-        <v>40.36216229298293</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="F30" t="n">
-        <v>40.36216229298293</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="G30" t="n">
-        <v>40.36216229298293</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H30" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I30" t="n">
         <v>18.39687801105209</v>
@@ -6543,49 +6545,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K30" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L30" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M30" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="N30" t="n">
         <v>246.0582433978217</v>
       </c>
-      <c r="L30" t="n">
-        <v>246.0582433978217</v>
-      </c>
-      <c r="M30" t="n">
-        <v>246.0582433978217</v>
-      </c>
-      <c r="N30" t="n">
-        <v>464.5211697790654</v>
-      </c>
       <c r="O30" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P30" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R30" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S30" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T30" t="n">
-        <v>919.8439005526046</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U30" t="n">
-        <v>919.8439005526046</v>
+        <v>386.1987942652527</v>
       </c>
       <c r="V30" t="n">
-        <v>919.8439005526046</v>
+        <v>386.1987942652527</v>
       </c>
       <c r="W30" t="n">
-        <v>689.7266546858915</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="X30" t="n">
-        <v>500.4195770359032</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="Y30" t="n">
-        <v>321.1053601114104</v>
+        <v>156.0815483985396</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.0299911085373</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C31" t="n">
-        <v>174.0299911085373</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D31" t="n">
         <v>18.39687801105209</v>
@@ -6628,7 +6630,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N31" t="n">
         <v>633.8407713642671</v>
@@ -6643,28 +6645,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R31" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S31" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T31" t="n">
-        <v>360.8430140968712</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U31" t="n">
-        <v>174.0299911085373</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V31" t="n">
-        <v>174.0299911085373</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W31" t="n">
-        <v>174.0299911085373</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X31" t="n">
-        <v>174.0299911085373</v>
+        <v>426.71695788571</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.0299911085373</v>
+        <v>203.6048967023534</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="C32" t="n">
-        <v>482.9645045527716</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="D32" t="n">
-        <v>250.6806912819119</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="E32" t="n">
-        <v>18.39687801105209</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="F32" t="n">
-        <v>18.39687801105209</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="G32" t="n">
-        <v>18.39687801105209</v>
+        <v>389.017808189447</v>
       </c>
       <c r="H32" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I32" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J32" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K32" t="n">
-        <v>18.39687801105209</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L32" t="n">
-        <v>246.0582433978217</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M32" t="n">
-        <v>246.0582433978217</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N32" t="n">
-        <v>279.6756096381168</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O32" t="n">
         <v>507.3369750248864</v>
@@ -6725,25 +6727,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T32" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U32" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V32" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="W32" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="X32" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="Y32" t="n">
-        <v>715.2483178236314</v>
+        <v>529.8297430530719</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.39687801105209</v>
+        <v>476.5025339339678</v>
       </c>
       <c r="C33" t="n">
-        <v>18.39687801105209</v>
+        <v>476.5025339339678</v>
       </c>
       <c r="D33" t="n">
-        <v>18.39687801105209</v>
+        <v>476.5025339339678</v>
       </c>
       <c r="E33" t="n">
-        <v>18.39687801105209</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F33" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G33" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H33" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I33" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K33" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L33" t="n">
-        <v>131.5118602307795</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M33" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N33" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O33" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P33" t="n">
         <v>919.8439005526046</v>
@@ -6801,28 +6803,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U33" t="n">
-        <v>709.7807572312464</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2407556023135</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W33" t="n">
-        <v>387.0181725855332</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="X33" t="n">
-        <v>197.7110949355448</v>
+        <v>476.5025339339678</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.39687801105209</v>
+        <v>476.5025339339678</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.39687801105209</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="C34" t="n">
-        <v>18.39687801105209</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="D34" t="n">
-        <v>18.39687801105209</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="E34" t="n">
-        <v>18.39687801105209</v>
+        <v>632.5498431000617</v>
       </c>
       <c r="F34" t="n">
-        <v>18.39687801105209</v>
+        <v>475.2239083130347</v>
       </c>
       <c r="G34" t="n">
-        <v>18.39687801105209</v>
+        <v>306.9698544124802</v>
       </c>
       <c r="H34" t="n">
-        <v>18.39687801105209</v>
+        <v>151.4913033739742</v>
       </c>
       <c r="I34" t="n">
         <v>18.39687801105209</v>
@@ -6880,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S34" t="n">
-        <v>919.8439005526046</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="T34" t="n">
-        <v>919.8439005526046</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="U34" t="n">
-        <v>715.2483178236314</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="V34" t="n">
-        <v>482.9645045527716</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="W34" t="n">
-        <v>250.6806912819119</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="X34" t="n">
-        <v>18.39687801105209</v>
+        <v>788.1086552408592</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.39687801105209</v>
+        <v>788.1086552408592</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C35" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D35" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E35" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F35" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="G35" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H35" t="n">
         <v>18.39687801105209</v>
@@ -6938,49 +6940,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K35" t="n">
-        <v>279.6756096381168</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L35" t="n">
-        <v>279.6756096381168</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M35" t="n">
-        <v>279.6756096381168</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N35" t="n">
-        <v>279.6756096381168</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O35" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T35" t="n">
-        <v>658.3503843975433</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U35" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V35" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W35" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X35" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y35" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>351.1859184554549</v>
+        <v>402.9996431447989</v>
       </c>
       <c r="C36" t="n">
-        <v>351.1859184554549</v>
+        <v>402.9996431447989</v>
       </c>
       <c r="D36" t="n">
-        <v>351.1859184554549</v>
+        <v>272.9106757662793</v>
       </c>
       <c r="E36" t="n">
-        <v>351.1859184554549</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F36" t="n">
-        <v>226.7541123385867</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G36" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H36" t="n">
         <v>18.39687801105209</v>
@@ -7020,19 +7022,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="L36" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M36" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N36" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="P36" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O36" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="P36" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
@@ -7041,25 +7043,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S36" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T36" t="n">
-        <v>892.3596131422672</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U36" t="n">
-        <v>682.296469820909</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V36" t="n">
-        <v>682.296469820909</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W36" t="n">
-        <v>682.296469820909</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="X36" t="n">
-        <v>682.296469820909</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="Y36" t="n">
-        <v>502.9822528964162</v>
+        <v>554.7959775857603</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.39687801105209</v>
+        <v>734.6358818613033</v>
       </c>
       <c r="C37" t="n">
-        <v>18.39687801105209</v>
+        <v>564.4307639272926</v>
       </c>
       <c r="D37" t="n">
-        <v>18.39687801105209</v>
+        <v>408.7976508298073</v>
       </c>
       <c r="E37" t="n">
-        <v>18.39687801105209</v>
+        <v>253.2388386890098</v>
       </c>
       <c r="F37" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G37" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H37" t="n">
         <v>18.39687801105209</v>
@@ -7117,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S37" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T37" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U37" t="n">
-        <v>128.5592008260114</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V37" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W37" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X37" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>658.3503843975433</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C38" t="n">
-        <v>658.3503843975433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D38" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E38" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F38" t="n">
         <v>18.39687801105209</v>
@@ -7172,16 +7174,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J38" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L38" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M38" t="n">
-        <v>279.6756096381168</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N38" t="n">
         <v>507.3369750248864</v>
@@ -7196,28 +7198,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S38" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T38" t="n">
-        <v>658.3503843975433</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U38" t="n">
-        <v>658.3503843975433</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V38" t="n">
-        <v>658.3503843975433</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W38" t="n">
-        <v>658.3503843975433</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X38" t="n">
-        <v>658.3503843975433</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y38" t="n">
-        <v>658.3503843975433</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>186.1746830112792</v>
+        <v>169.309025670449</v>
       </c>
       <c r="C39" t="n">
-        <v>186.1746830112792</v>
+        <v>18.65479523054125</v>
       </c>
       <c r="D39" t="n">
-        <v>186.1746830112792</v>
+        <v>18.65479523054125</v>
       </c>
       <c r="E39" t="n">
-        <v>186.1746830112792</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F39" t="n">
-        <v>186.1746830112792</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G39" t="n">
-        <v>66.11486508314361</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H39" t="n">
         <v>18.39687801105209</v>
@@ -7251,22 +7253,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J39" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K39" t="n">
-        <v>236.8598043922958</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L39" t="n">
-        <v>464.5211697790654</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M39" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O39" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P39" t="n">
         <v>919.8439005526046</v>
@@ -7278,25 +7280,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S39" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T39" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U39" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V39" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W39" t="n">
-        <v>554.7959775857603</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="X39" t="n">
-        <v>365.4888999357719</v>
+        <v>500.4195770359032</v>
       </c>
       <c r="Y39" t="n">
-        <v>186.1746830112792</v>
+        <v>321.1053601114104</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>455.276274010885</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="C40" t="n">
-        <v>455.276274010885</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D40" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E40" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F40" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G40" t="n">
-        <v>306.9698544124802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H40" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I40" t="n">
         <v>18.39687801105209</v>
@@ -7357,25 +7359,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T40" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U40" t="n">
-        <v>687.5600872817448</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="V40" t="n">
-        <v>455.276274010885</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="W40" t="n">
-        <v>455.276274010885</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="X40" t="n">
-        <v>455.276274010885</v>
+        <v>582.3500709831952</v>
       </c>
       <c r="Y40" t="n">
-        <v>455.276274010885</v>
+        <v>359.2380097998386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.39687801105209</v>
+        <v>417.283360296407</v>
       </c>
       <c r="C41" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="D41" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="E41" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="F41" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="G41" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="H41" t="n">
         <v>18.39687801105209</v>
@@ -7412,19 +7414,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="L41" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="M41" t="n">
+        <v>163.0466509198802</v>
+      </c>
+      <c r="N41" t="n">
         <v>279.6756096381168</v>
       </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="M41" t="n">
-        <v>507.3369750248864</v>
-      </c>
-      <c r="N41" t="n">
-        <v>507.3369750248864</v>
-      </c>
-      <c r="O41" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P41" t="n">
         <v>734.998340411656</v>
@@ -7433,28 +7435,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T41" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U41" t="n">
-        <v>919.8439005526046</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="V41" t="n">
-        <v>919.8439005526046</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="W41" t="n">
-        <v>687.5600872817448</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="X41" t="n">
-        <v>455.276274010885</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.9924607400252</v>
+        <v>649.5671735672668</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>262.8885020560559</v>
+        <v>375.4817606612675</v>
       </c>
       <c r="C42" t="n">
-        <v>262.8885020560559</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="D42" t="n">
-        <v>262.8885020560559</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="E42" t="n">
-        <v>262.8885020560559</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="F42" t="n">
-        <v>138.4566959391877</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G42" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H42" t="n">
         <v>18.39687801105209</v>
@@ -7512,28 +7514,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R42" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S42" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T42" t="n">
-        <v>631.509796630537</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U42" t="n">
-        <v>631.509796630537</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V42" t="n">
-        <v>631.509796630537</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W42" t="n">
-        <v>631.509796630537</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="X42" t="n">
-        <v>442.2027189805486</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="Y42" t="n">
-        <v>262.8885020560559</v>
+        <v>375.4817606612675</v>
       </c>
     </row>
     <row r="43">
@@ -7594,25 +7596,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S43" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T43" t="n">
-        <v>484.7440034642941</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U43" t="n">
-        <v>484.7440034642941</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V43" t="n">
-        <v>484.7440034642941</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W43" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X43" t="n">
-        <v>252.4601901934343</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.34812901007768</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
   </sheetData>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N20" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O20" t="n">
-        <v>267.3708664324162</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P20" t="n">
-        <v>380.2624223790764</v>
+        <v>370.971069848242</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9483,13 +9485,13 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L21" t="n">
-        <v>196.4724116665307</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M21" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N21" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>92.68755888888889</v>
@@ -9498,7 +9500,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M23" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N23" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O23" t="n">
-        <v>370.2334600314132</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>219.0574392996201</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9720,16 +9722,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>313.0567446566288</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N24" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
@@ -9878,22 +9880,22 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L26" t="n">
-        <v>271.0551987388115</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O26" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9954,22 +9956,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>306.0417354614835</v>
       </c>
       <c r="O27" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q27" t="n">
         <v>320.9491282940651</v>
@@ -10039,7 +10041,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
-        <v>278.4750710187353</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N28" t="n">
         <v>268.0356382773604</v>
@@ -10115,19 +10117,19 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>383.2091448686429</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>224.1225783053243</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10191,7 +10193,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
@@ -10200,7 +10202,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>306.0417354614835</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O30" t="n">
         <v>322.6485340270401</v>
@@ -10209,7 +10211,7 @@
         <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L32" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
-        <v>183.0754269340418</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
         <v>380.2624223790764</v>
@@ -10425,13 +10427,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M33" t="n">
         <v>322.3480971874631</v>
@@ -10443,7 +10445,7 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P33" t="n">
-        <v>193.4954296289271</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10586,13 +10588,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>260.8654321875572</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L35" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N35" t="n">
         <v>149.1184913377841</v>
@@ -10601,10 +10603,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10668,10 +10670,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>320.0213219950694</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M36" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>315.3330879923178</v>
@@ -10683,7 +10685,7 @@
         <v>317.0443399574658</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>143.0584031792374</v>
@@ -10829,10 +10831,10 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
-        <v>183.681987193985</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
-        <v>379.0794664759352</v>
+        <v>266.9255203461039</v>
       </c>
       <c r="O38" t="n">
         <v>379.5248125622476</v>
@@ -10899,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>310.2665579406502</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O39" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P39" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11060,22 +11062,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>260.8654321875572</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
-        <v>149.1184913377841</v>
+        <v>266.925520346104</v>
       </c>
       <c r="O41" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N44" t="n">
         <v>149.1184913377841</v>
@@ -11312,7 +11314,7 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11379,19 +11381,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F20" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>206.4815010551934</v>
       </c>
       <c r="H20" t="n">
-        <v>190.1337831361595</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24060,7 +24062,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.8592197488542</v>
+        <v>69.93386121503988</v>
       </c>
       <c r="H21" t="n">
         <v>87.41444223540508</v>
@@ -24099,7 +24101,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>126.2886151492663</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24148,7 +24150,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U22" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V22" t="n">
-        <v>139.298092072614</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24206,25 +24208,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>360.8564822412974</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G23" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I23" t="n">
-        <v>99.2525383451364</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,10 +24265,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -24294,10 +24296,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H24" t="n">
         <v>87.41444223540508</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9625118881446</v>
+        <v>204.879472876775</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>40.04158189678537</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24379,7 +24381,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>152.1620616057137</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24412,25 +24414,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>172.5142000153529</v>
       </c>
       <c r="T25" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>166.5288231161317</v>
       </c>
       <c r="C26" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24452,7 +24454,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>247.7888517609719</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24503,13 +24505,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>164.7394177797119</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>90.4313931606807</v>
+        <v>99.3527563441494</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>48.89338144820752</v>
@@ -24582,13 +24584,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -24652,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>3.400886175297046</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U28" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W28" t="n">
         <v>50.53612290998299</v>
       </c>
       <c r="X28" t="n">
-        <v>29.18989209316331</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C29" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>179.0701528187257</v>
+        <v>206.4815010551934</v>
       </c>
       <c r="H29" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24737,10 +24739,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24759,10 +24761,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
@@ -24774,10 +24776,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>65.66881079629354</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9625118881446</v>
+        <v>12.12707334679274</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24822,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>3.400886175297046</v>
       </c>
       <c r="U31" t="n">
-        <v>97.63951108206751</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24901,10 +24903,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>203.4657960309235</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>269.6273124418883</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>18.71596951449399</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -25002,19 +25004,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>59.91195810470093</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -25050,19 +25052,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>128.5957162214335</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -25081,19 +25083,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>193.0320095943969</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>80.03477693883457</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.5288231161317</v>
+        <v>193.9401713525994</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -25166,10 +25168,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>79.56318122342347</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25236,19 +25238,19 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>6.300854258245778</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
         <v>48.89338144820752</v>
@@ -25281,25 +25283,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>148.0045291468466</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>77.1828998960996</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25391,16 +25393,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D38" t="n">
-        <v>207.954696449175</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -25436,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>134.8266879329269</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>40.17363503403448</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
         <v>48.89338144820752</v>
@@ -25518,7 +25520,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
         <v>175.2139736830806</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25561,13 +25563,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>19.74815795912821</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25597,25 +25599,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>98.40855070040763</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9401713525995</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25643,7 +25645,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>155.9055776048241</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25682,19 +25684,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>1.907316296054717</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -25716,13 +25718,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>48.89338144820752</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>47.02245380027966</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
@@ -25767,10 +25769,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.5142000153529</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25834,16 +25836,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>3.400886175297046</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W43" t="n">
         <v>50.53612290998299</v>
@@ -25852,7 +25854,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>193.9401713525994</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25871,13 +25873,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25998,19 +26000,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="46">
@@ -26032,10 +26034,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>119.7745618990223</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26074,13 +26076,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434909.0243981152</v>
+        <v>434909.0243981153</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434909.0243981153</v>
+        <v>434909.0243981152</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434909.0243981151</v>
+        <v>434909.024398115</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434909.0243981152</v>
+        <v>434909.0243981153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434909.0243981153</v>
+        <v>434909.0243981151</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232951.5378089735</v>
+        <v>434909.0243981154</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30058.26294309333</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="C2" t="n">
         <v>30058.26294309333</v>
       </c>
       <c r="D2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="E2" t="n">
         <v>30058.26294309334</v>
@@ -26329,31 +26331,31 @@
         <v>30058.26294309333</v>
       </c>
       <c r="H2" t="n">
-        <v>56117.29347072454</v>
+        <v>56117.29347072456</v>
       </c>
       <c r="I2" t="n">
         <v>56117.29347072455</v>
       </c>
       <c r="J2" t="n">
+        <v>56117.29347072457</v>
+      </c>
+      <c r="K2" t="n">
+        <v>56117.29347072455</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56117.29347072455</v>
+      </c>
+      <c r="M2" t="n">
+        <v>56117.29347072455</v>
+      </c>
+      <c r="N2" t="n">
         <v>56117.29347072454</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>56117.29347072457</v>
       </c>
-      <c r="L2" t="n">
-        <v>56117.29347072456</v>
-      </c>
-      <c r="M2" t="n">
-        <v>56117.29347072454</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>56117.29347072455</v>
-      </c>
-      <c r="O2" t="n">
-        <v>56117.29347072455</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30058.26294309334</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54356.79553730534</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>199.4110080167677</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>199.4110080167677</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906668</v>
+        <v>-3569.337056906661</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906668</v>
+        <v>-3569.337056906665</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-3569.337056906665</v>
       </c>
       <c r="E6" t="n">
         <v>30058.26294309334</v>
@@ -26537,19 +26539,19 @@
         <v>30058.26294309333</v>
       </c>
       <c r="H6" t="n">
-        <v>-20109.28556674124</v>
+        <v>-20109.28556674123</v>
       </c>
       <c r="I6" t="n">
         <v>41936.25517430819</v>
       </c>
       <c r="J6" t="n">
+        <v>41936.25517430821</v>
+      </c>
+      <c r="K6" t="n">
         <v>41936.25517430819</v>
       </c>
-      <c r="K6" t="n">
-        <v>41936.25517430821</v>
-      </c>
       <c r="L6" t="n">
-        <v>41936.2551743082</v>
+        <v>41936.25517430819</v>
       </c>
       <c r="M6" t="n">
         <v>41936.25517430819</v>
@@ -26558,10 +26560,10 @@
         <v>41936.25517430819</v>
       </c>
       <c r="O6" t="n">
-        <v>41936.25517430819</v>
+        <v>41936.25517430821</v>
       </c>
       <c r="P6" t="n">
-        <v>30058.26294309334</v>
+        <v>-12420.54036299715</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P20" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L21" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="M21" t="n">
         <v>106.4120648096125</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N21" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O23" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M24" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="N24" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36598,22 +36600,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L26" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>220.6696226073169</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q27" t="n">
         <v>229.9609751381512</v>
@@ -36759,7 +36761,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M28" t="n">
-        <v>188.173311452792</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N28" t="n">
         <v>185.0400343749588</v>
@@ -36835,19 +36837,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="M29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O29" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="O30" t="n">
         <v>229.9609751381512</v>
@@ -36929,7 +36931,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L31" t="n">
         <v>165.78549482202</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>33.9569355962577</v>
-      </c>
       <c r="O32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>229.9609751381512</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M33" t="n">
         <v>229.9609751381512</v>
@@ -37163,7 +37165,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P33" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37242,7 +37244,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379581</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37306,13 +37308,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37321,10 +37323,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="M36" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>229.9609751381512</v>
@@ -37403,7 +37405,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37549,10 +37551,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
-        <v>33.9569355962577</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="O38" t="n">
         <v>229.9609751381512</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O39" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P39" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,22 +37782,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>117.8070290083198</v>
-      </c>
-      <c r="L41" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164022.1399386267</v>
+        <v>153204.0630794348</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12396667.49869666</v>
+        <v>12064315.81866871</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18482261.47781499</v>
+        <v>18156523.59621961</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3927870.176942094</v>
+        <v>4093864.509582698</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>173.6320210463239</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>75.5424845156964</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.1759816935571</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2086,62 +2086,62 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S20" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T20" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F20" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="G20" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.783601537963921</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>11.05263493416424</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>48.92535853381431</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="U22" t="n">
+        <v>172.4751394295243</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V22" t="n">
-        <v>109.0606995868097</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>37.70120739332346</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>133.5813703291298</v>
@@ -2453,19 +2453,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>3.08303901136961</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>198.153621660534</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2478,10 +2478,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>28.27372296392322</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U25" t="n">
-        <v>229.9609751381512</v>
+        <v>3.79932300650858</v>
       </c>
       <c r="V25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>164.9366423243501</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="W26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>19.50646340470481</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>135.5065332832369</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>171.1150911789661</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="V28" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W28" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>164.9366423243501</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>229.9609751381512</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
-        <v>195.8354385413519</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>144.729255351476</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>143.2771092045369</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>28.27372296392322</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>139.4038155149886</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>229.9609751381512</v>
+        <v>173.6320210463239</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>75.17006787552022</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>25.24748586289822</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>122.6811446341674</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.755913384879197</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>164.9366423243501</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="V35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H35" t="n">
+      <c r="W35" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>128.7811717219754</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>25.24748586289823</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>32.06738239138028</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -3435,13 +3435,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>78.56977554305718</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>202.5496269016835</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2553380472942703</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>79.08012240725671</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,16 +3663,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0.8566724603805568</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.3309682944391</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,26 +3739,26 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>164.9366423243501</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="V41" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>147.240371839454</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>87.41444223540508</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>24.56627491100689</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>229.9609751381512</v>
+        <v>190.9571676292561</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,58 +3985,58 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U44" t="n">
+        <v>211.2450056236572</v>
+      </c>
+      <c r="V44" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.24748586289823</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>35.9781135401345</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9609751381512</v>
+        <v>185.7088421112914</v>
       </c>
       <c r="V46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>426.0665711266835</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>426.0665711266835</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>426.0665711266835</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>658.3503843975433</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>274.0166348503897</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>94.70241792589695</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>340.5470367309651</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C20" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D20" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E20" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F20" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G20" t="n">
         <v>18.39687801105209</v>
@@ -5752,22 +5752,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J20" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K20" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L20" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M20" t="n">
-        <v>246.0582433978217</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N20" t="n">
-        <v>473.7196087845913</v>
+        <v>846.030747080189</v>
       </c>
       <c r="O20" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P20" t="n">
         <v>919.8439005526046</v>
@@ -5776,28 +5776,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R20" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S20" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T20" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U20" t="n">
-        <v>687.5600872817448</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V20" t="n">
-        <v>687.5600872817448</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W20" t="n">
-        <v>687.5600872817448</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X20" t="n">
-        <v>687.5600872817448</v>
+        <v>259.553016067734</v>
       </c>
       <c r="Y20" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.81643208561201</v>
+        <v>543.6316998744833</v>
       </c>
       <c r="C21" t="n">
-        <v>67.81643208561201</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="D21" t="n">
-        <v>67.81643208561201</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="E21" t="n">
-        <v>67.81643208561201</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F21" t="n">
-        <v>67.81643208561201</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G21" t="n">
         <v>18.39687801105209</v>
@@ -5843,13 +5843,13 @@
         <v>692.182535165835</v>
       </c>
       <c r="N21" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O21" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P21" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q21" t="n">
         <v>919.8439005526046</v>
@@ -5858,25 +5858,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S21" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T21" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U21" t="n">
-        <v>709.7807572312464</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2407556023135</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W21" t="n">
-        <v>257.1235097356004</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="X21" t="n">
-        <v>67.81643208561201</v>
+        <v>554.7959775857603</v>
       </c>
       <c r="Y21" t="n">
-        <v>67.81643208561201</v>
+        <v>554.7959775857603</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="C22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="D22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="E22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J22" t="n">
         <v>18.39687801105209</v>
@@ -5934,28 +5934,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R22" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S22" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T22" t="n">
-        <v>360.8430140968712</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U22" t="n">
-        <v>128.5592008260114</v>
+        <v>513.3427747266697</v>
       </c>
       <c r="V22" t="n">
-        <v>18.39687801105209</v>
+        <v>513.3427747266697</v>
       </c>
       <c r="W22" t="n">
-        <v>18.39687801105209</v>
+        <v>281.0589614558099</v>
       </c>
       <c r="X22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>521.0465322227953</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="C23" t="n">
-        <v>521.0465322227953</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="D23" t="n">
-        <v>521.0465322227953</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E23" t="n">
         <v>482.9645045527716</v>
@@ -5980,7 +5980,7 @@
         <v>250.6806912819119</v>
       </c>
       <c r="G23" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5992,49 +5992,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K23" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L23" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M23" t="n">
-        <v>618.3693816934194</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N23" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O23" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P23" t="n">
-        <v>846.030747080189</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R23" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S23" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T23" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U23" t="n">
-        <v>753.3303454936552</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V23" t="n">
-        <v>753.3303454936552</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W23" t="n">
-        <v>521.0465322227953</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X23" t="n">
-        <v>521.0465322227953</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y23" t="n">
-        <v>521.0465322227953</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>169.0511084509599</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C24" t="n">
         <v>18.39687801105209</v>
@@ -6068,52 +6068,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J24" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L24" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M24" t="n">
-        <v>246.0582433978217</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N24" t="n">
-        <v>473.7196087845913</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O24" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P24" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R24" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S24" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T24" t="n">
-        <v>584.0123685494465</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U24" t="n">
-        <v>580.8981877298812</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="V24" t="n">
-        <v>358.3581861009482</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="W24" t="n">
-        <v>358.3581861009482</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="X24" t="n">
-        <v>169.0511084509599</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y24" t="n">
-        <v>169.0511084509599</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.39687801105209</v>
+        <v>374.6133792164462</v>
       </c>
       <c r="C25" t="n">
-        <v>18.39687801105209</v>
+        <v>204.4082612824354</v>
       </c>
       <c r="D25" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="E25" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F25" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G25" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H25" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I25" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J25" t="n">
         <v>18.39687801105209</v>
@@ -6171,28 +6171,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R25" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S25" t="n">
-        <v>891.2845844274296</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T25" t="n">
-        <v>891.2845844274296</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="U25" t="n">
-        <v>659.0007711565698</v>
+        <v>559.8213979077475</v>
       </c>
       <c r="V25" t="n">
-        <v>426.71695788571</v>
+        <v>559.8213979077475</v>
       </c>
       <c r="W25" t="n">
-        <v>426.71695788571</v>
+        <v>559.8213979077475</v>
       </c>
       <c r="X25" t="n">
-        <v>426.71695788571</v>
+        <v>559.8213979077475</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.6048967023534</v>
+        <v>559.8213979077475</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>184.9995470255472</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C26" t="n">
-        <v>184.9995470255472</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D26" t="n">
-        <v>184.9995470255472</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E26" t="n">
-        <v>184.9995470255472</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F26" t="n">
         <v>18.39687801105209</v>
@@ -6250,28 +6250,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R26" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T26" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U26" t="n">
-        <v>881.8509868381266</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V26" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W26" t="n">
-        <v>649.5671735672668</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X26" t="n">
-        <v>417.283360296407</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y26" t="n">
-        <v>417.283360296407</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.9303202449302</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C27" t="n">
-        <v>387.2760898050224</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D27" t="n">
-        <v>387.2760898050224</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E27" t="n">
-        <v>250.8295989159101</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F27" t="n">
-        <v>126.3977927990419</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G27" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H27" t="n">
         <v>18.39687801105209</v>
@@ -6305,25 +6305,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J27" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L27" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M27" t="n">
-        <v>18.39687801105209</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N27" t="n">
-        <v>236.8598043922958</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O27" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P27" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q27" t="n">
         <v>919.8439005526046</v>
@@ -6332,25 +6332,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S27" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T27" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U27" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="V27" t="n">
-        <v>919.8439005526046</v>
+        <v>385.3894100224489</v>
       </c>
       <c r="W27" t="n">
-        <v>689.7266546858915</v>
+        <v>155.2721641557358</v>
       </c>
       <c r="X27" t="n">
-        <v>689.7266546858915</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.7266546858915</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.39687801105209</v>
+        <v>329.5085421470434</v>
       </c>
       <c r="C28" t="n">
-        <v>18.39687801105209</v>
+        <v>329.5085421470434</v>
       </c>
       <c r="D28" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="E28" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="F28" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G28" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H28" t="n">
         <v>18.39687801105209</v>
@@ -6414,22 +6414,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T28" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U28" t="n">
-        <v>482.9645045527716</v>
+        <v>747.0003741092045</v>
       </c>
       <c r="V28" t="n">
-        <v>250.6806912819119</v>
+        <v>747.0003741092045</v>
       </c>
       <c r="W28" t="n">
-        <v>18.39687801105209</v>
+        <v>747.0003741092045</v>
       </c>
       <c r="X28" t="n">
-        <v>18.39687801105209</v>
+        <v>514.7165608383447</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.39687801105209</v>
+        <v>514.7165608383447</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>455.276274010885</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="C29" t="n">
-        <v>455.276274010885</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="D29" t="n">
-        <v>455.276274010885</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="E29" t="n">
-        <v>222.9924607400252</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="F29" t="n">
-        <v>222.9924607400252</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="G29" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="H29" t="n">
         <v>18.39687801105209</v>
@@ -6469,16 +6469,16 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L29" t="n">
-        <v>464.5211697790654</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M29" t="n">
-        <v>692.182535165835</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N29" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O29" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P29" t="n">
         <v>919.8439005526046</v>
@@ -6487,28 +6487,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V29" t="n">
-        <v>919.8439005526046</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="W29" t="n">
-        <v>687.5600872817448</v>
+        <v>417.283360296407</v>
       </c>
       <c r="X29" t="n">
-        <v>687.5600872817448</v>
+        <v>417.283360296407</v>
       </c>
       <c r="Y29" t="n">
-        <v>687.5600872817448</v>
+        <v>184.9995470255472</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H30" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I30" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J30" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K30" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L30" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M30" t="n">
-        <v>18.39687801105209</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N30" t="n">
-        <v>246.0582433978217</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O30" t="n">
-        <v>473.7196087845913</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P30" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
@@ -6575,19 +6575,19 @@
         <v>584.0123685494465</v>
       </c>
       <c r="U30" t="n">
-        <v>386.1987942652527</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="V30" t="n">
-        <v>386.1987942652527</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0815483985396</v>
+        <v>353.8951226827334</v>
       </c>
       <c r="X30" t="n">
-        <v>156.0815483985396</v>
+        <v>164.588045032745</v>
       </c>
       <c r="Y30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
       <c r="C31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
       <c r="D31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
       <c r="E31" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F31" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G31" t="n">
         <v>18.39687801105209</v>
@@ -6630,7 +6630,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N31" t="n">
         <v>633.8407713642671</v>
@@ -6645,28 +6645,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R31" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S31" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T31" t="n">
-        <v>687.5600872817448</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="U31" t="n">
-        <v>455.276274010885</v>
+        <v>331.375284643462</v>
       </c>
       <c r="V31" t="n">
-        <v>455.276274010885</v>
+        <v>331.375284643462</v>
       </c>
       <c r="W31" t="n">
-        <v>455.276274010885</v>
+        <v>331.375284643462</v>
       </c>
       <c r="X31" t="n">
-        <v>426.71695788571</v>
+        <v>331.375284643462</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.6048967023534</v>
+        <v>331.375284643462</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="C32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="D32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="E32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="F32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="G32" t="n">
-        <v>389.017808189447</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="H32" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I32" t="n">
         <v>18.39687801105209</v>
@@ -6703,49 +6703,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K32" t="n">
-        <v>279.6756096381168</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L32" t="n">
-        <v>279.6756096381168</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M32" t="n">
-        <v>279.6756096381168</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N32" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O32" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P32" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R32" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S32" t="n">
-        <v>753.3303454936552</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T32" t="n">
-        <v>529.8297430530719</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="U32" t="n">
-        <v>529.8297430530719</v>
+        <v>426.0665711266835</v>
       </c>
       <c r="V32" t="n">
-        <v>529.8297430530719</v>
+        <v>426.0665711266835</v>
       </c>
       <c r="W32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="X32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="Y32" t="n">
-        <v>529.8297430530719</v>
+        <v>193.7827578558237</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>476.5025339339678</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C33" t="n">
-        <v>476.5025339339678</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D33" t="n">
-        <v>476.5025339339678</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E33" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F33" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G33" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H33" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I33" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J33" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L33" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M33" t="n">
-        <v>464.5211697790654</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N33" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O33" t="n">
         <v>919.8439005526046</v>
@@ -6806,25 +6806,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>895.9268574506692</v>
+        <v>870.4243464780448</v>
       </c>
       <c r="T33" t="n">
-        <v>895.9268574506692</v>
+        <v>870.4243464780448</v>
       </c>
       <c r="U33" t="n">
-        <v>895.9268574506692</v>
+        <v>660.3612031566865</v>
       </c>
       <c r="V33" t="n">
-        <v>895.9268574506692</v>
+        <v>437.8212015277536</v>
       </c>
       <c r="W33" t="n">
-        <v>665.8096115839561</v>
+        <v>207.7039556610404</v>
       </c>
       <c r="X33" t="n">
-        <v>476.5025339339678</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y33" t="n">
-        <v>476.5025339339678</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.1086552408592</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C34" t="n">
-        <v>788.1086552408592</v>
+        <v>455.276274010885</v>
       </c>
       <c r="D34" t="n">
-        <v>788.1086552408592</v>
+        <v>299.6431609133998</v>
       </c>
       <c r="E34" t="n">
-        <v>632.5498431000617</v>
+        <v>299.6431609133998</v>
       </c>
       <c r="F34" t="n">
-        <v>475.2239083130347</v>
+        <v>142.3172261263727</v>
       </c>
       <c r="G34" t="n">
-        <v>306.9698544124802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H34" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I34" t="n">
         <v>18.39687801105209</v>
@@ -6882,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S34" t="n">
-        <v>788.1086552408592</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T34" t="n">
-        <v>788.1086552408592</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U34" t="n">
-        <v>788.1086552408592</v>
+        <v>455.276274010885</v>
       </c>
       <c r="V34" t="n">
-        <v>788.1086552408592</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W34" t="n">
-        <v>788.1086552408592</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X34" t="n">
-        <v>788.1086552408592</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y34" t="n">
-        <v>788.1086552408592</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>715.2483178236314</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="C35" t="n">
-        <v>482.9645045527716</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="D35" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E35" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F35" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G35" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H35" t="n">
         <v>18.39687801105209</v>
@@ -6943,16 +6943,16 @@
         <v>390.7080163066498</v>
       </c>
       <c r="L35" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="M35" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="N35" t="n">
         <v>618.3693816934194</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N35" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="O35" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
         <v>919.8439005526046</v>
@@ -6961,28 +6961,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S35" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T35" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U35" t="n">
-        <v>919.8439005526046</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="V35" t="n">
-        <v>919.8439005526046</v>
+        <v>417.283360296407</v>
       </c>
       <c r="W35" t="n">
-        <v>919.8439005526046</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="X35" t="n">
-        <v>919.8439005526046</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="Y35" t="n">
-        <v>919.8439005526046</v>
+        <v>184.9995470255472</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>402.9996431447989</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C36" t="n">
-        <v>402.9996431447989</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D36" t="n">
-        <v>272.9106757662793</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E36" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F36" t="n">
         <v>18.39687801105209</v>
@@ -7019,49 +7019,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K36" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L36" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M36" t="n">
-        <v>236.8598043922958</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O36" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P36" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R36" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S36" t="n">
-        <v>784.9132234524734</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T36" t="n">
-        <v>784.9132234524734</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U36" t="n">
-        <v>784.9132234524734</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V36" t="n">
-        <v>784.9132234524734</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W36" t="n">
-        <v>554.7959775857603</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X36" t="n">
-        <v>554.7959775857603</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="Y36" t="n">
-        <v>554.7959775857603</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6358818613033</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="C37" t="n">
-        <v>564.4307639272926</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="D37" t="n">
-        <v>408.7976508298073</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="E37" t="n">
-        <v>253.2388386890098</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F37" t="n">
-        <v>173.8754290495581</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G37" t="n">
-        <v>173.8754290495581</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H37" t="n">
         <v>18.39687801105209</v>
@@ -7128,19 +7128,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U37" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V37" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W37" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X37" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y37" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250.6806912819119</v>
+        <v>259.553016067734</v>
       </c>
       <c r="C38" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
       <c r="D38" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
       <c r="E38" t="n">
-        <v>18.39687801105209</v>
+        <v>259.553016067734</v>
       </c>
       <c r="F38" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="G38" t="n">
-        <v>18.39687801105209</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="H38" t="n">
         <v>18.39687801105209</v>
@@ -7177,49 +7177,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K38" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L38" t="n">
-        <v>390.7080163066498</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M38" t="n">
-        <v>390.7080163066498</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N38" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O38" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P38" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q38" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S38" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T38" t="n">
-        <v>919.8439005526046</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U38" t="n">
-        <v>715.2483178236314</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V38" t="n">
-        <v>482.9645045527716</v>
+        <v>259.553016067734</v>
       </c>
       <c r="W38" t="n">
-        <v>250.6806912819119</v>
+        <v>259.553016067734</v>
       </c>
       <c r="X38" t="n">
-        <v>250.6806912819119</v>
+        <v>259.553016067734</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.6806912819119</v>
+        <v>259.553016067734</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>169.309025670449</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C39" t="n">
-        <v>18.65479523054125</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D39" t="n">
-        <v>18.65479523054125</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E39" t="n">
         <v>18.39687801105209</v>
@@ -7256,16 +7256,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K39" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L39" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M39" t="n">
-        <v>464.5211697790654</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N39" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O39" t="n">
         <v>919.8439005526046</v>
@@ -7277,28 +7277,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R39" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S39" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T39" t="n">
-        <v>919.8439005526046</v>
+        <v>681.1172688280565</v>
       </c>
       <c r="U39" t="n">
-        <v>919.8439005526046</v>
+        <v>471.0541255066982</v>
       </c>
       <c r="V39" t="n">
-        <v>919.8439005526046</v>
+        <v>248.5141238777652</v>
       </c>
       <c r="W39" t="n">
-        <v>689.7266546858915</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X39" t="n">
-        <v>500.4195770359032</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y39" t="n">
-        <v>321.1053601114104</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>174.0299911085373</v>
+        <v>502.3520685904435</v>
       </c>
       <c r="C40" t="n">
-        <v>174.0299911085373</v>
+        <v>332.1469506564328</v>
       </c>
       <c r="D40" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E40" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F40" t="n">
         <v>18.39687801105209</v>
@@ -7359,25 +7359,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T40" t="n">
-        <v>717.0278167351539</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U40" t="n">
-        <v>717.0278167351539</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V40" t="n">
-        <v>717.0278167351539</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W40" t="n">
-        <v>717.0278167351539</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X40" t="n">
-        <v>582.3500709831952</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.2380097998386</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>417.283360296407</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C41" t="n">
-        <v>184.9995470255472</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D41" t="n">
-        <v>184.9995470255472</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E41" t="n">
-        <v>184.9995470255472</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F41" t="n">
-        <v>184.9995470255472</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G41" t="n">
-        <v>184.9995470255472</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H41" t="n">
         <v>18.39687801105209</v>
@@ -7414,49 +7414,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L41" t="n">
-        <v>163.0466509198802</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M41" t="n">
-        <v>163.0466509198802</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N41" t="n">
-        <v>279.6756096381168</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O41" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P41" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q41" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R41" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S41" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T41" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U41" t="n">
-        <v>649.5671735672668</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V41" t="n">
-        <v>649.5671735672668</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W41" t="n">
-        <v>649.5671735672668</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X41" t="n">
-        <v>649.5671735672668</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y41" t="n">
-        <v>649.5671735672668</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>375.4817606612675</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="C42" t="n">
-        <v>226.7541123385867</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="D42" t="n">
-        <v>226.7541123385867</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="E42" t="n">
-        <v>226.7541123385867</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7541123385867</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="G42" t="n">
         <v>106.6942944104512</v>
@@ -7499,43 +7499,43 @@
         <v>586.8345910043187</v>
       </c>
       <c r="M42" t="n">
-        <v>692.182535165835</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N42" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O42" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P42" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q42" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R42" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T42" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U42" t="n">
-        <v>784.9132234524734</v>
+        <v>550.9330370291798</v>
       </c>
       <c r="V42" t="n">
-        <v>784.9132234524734</v>
+        <v>526.1186179271526</v>
       </c>
       <c r="W42" t="n">
-        <v>554.7959775857603</v>
+        <v>296.0013720604395</v>
       </c>
       <c r="X42" t="n">
-        <v>554.7959775857603</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="Y42" t="n">
-        <v>375.4817606612675</v>
+        <v>106.6942944104512</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.39687801105209</v>
+        <v>494.6740593734053</v>
       </c>
       <c r="C43" t="n">
-        <v>18.39687801105209</v>
+        <v>494.6740593734053</v>
       </c>
       <c r="D43" t="n">
-        <v>18.39687801105209</v>
+        <v>494.6740593734053</v>
       </c>
       <c r="E43" t="n">
-        <v>18.39687801105209</v>
+        <v>494.6740593734053</v>
       </c>
       <c r="F43" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="G43" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H43" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I43" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J43" t="n">
         <v>18.39687801105209</v>
@@ -7599,22 +7599,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T43" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U43" t="n">
-        <v>482.9645045527716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V43" t="n">
-        <v>250.6806912819119</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W43" t="n">
-        <v>18.39687801105209</v>
+        <v>494.6740593734053</v>
       </c>
       <c r="X43" t="n">
-        <v>18.39687801105209</v>
+        <v>494.6740593734053</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.39687801105209</v>
+        <v>494.6740593734053</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C44" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D44" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E44" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F44" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G44" t="n">
         <v>18.39687801105209</v>
@@ -7657,13 +7657,13 @@
         <v>618.3693816934194</v>
       </c>
       <c r="M44" t="n">
-        <v>692.182535165835</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N44" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O44" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P44" t="n">
         <v>919.8439005526046</v>
@@ -7678,22 +7678,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T44" t="n">
-        <v>919.8439005526046</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U44" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V44" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W44" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X44" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y44" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="C45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="D45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="E45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="F45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="G45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="H45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="I45" t="n">
         <v>18.39687801105209</v>
@@ -7730,49 +7730,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K45" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L45" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M45" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O45" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P45" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q45" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T45" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U45" t="n">
-        <v>709.7807572312464</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V45" t="n">
-        <v>487.2407556023135</v>
+        <v>463.3237125003781</v>
       </c>
       <c r="W45" t="n">
-        <v>257.1235097356004</v>
+        <v>233.2064666336649</v>
       </c>
       <c r="X45" t="n">
-        <v>67.81643208561201</v>
+        <v>43.89938898367657</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.39687801105209</v>
+        <v>43.89938898367657</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.9924607400252</v>
+        <v>344.2351090425481</v>
       </c>
       <c r="C46" t="n">
-        <v>222.9924607400252</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D46" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E46" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
         <v>18.39687801105209</v>
@@ -7833,25 +7833,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T46" t="n">
-        <v>687.5600872817448</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U46" t="n">
-        <v>455.276274010885</v>
+        <v>529.4431277338495</v>
       </c>
       <c r="V46" t="n">
-        <v>222.9924607400252</v>
+        <v>529.4431277338495</v>
       </c>
       <c r="W46" t="n">
-        <v>222.9924607400252</v>
+        <v>529.4431277338495</v>
       </c>
       <c r="X46" t="n">
-        <v>222.9924607400252</v>
+        <v>529.4431277338495</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.9924607400252</v>
+        <v>529.4431277338495</v>
       </c>
     </row>
   </sheetData>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O17" t="n">
         <v>149.5638374240964</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M20" t="n">
         <v>379.6860267358784</v>
@@ -9415,10 +9415,10 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O20" t="n">
-        <v>379.5248125622476</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P20" t="n">
-        <v>370.971069848242</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9491,7 +9491,7 @@
         <v>198.7991868589244</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O21" t="n">
         <v>92.68755888888889</v>
@@ -9500,7 +9500,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9640,7 +9640,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L23" t="n">
         <v>383.2091448686429</v>
@@ -9649,7 +9649,7 @@
         <v>379.6860267358784</v>
       </c>
       <c r="N23" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O23" t="n">
         <v>149.5638374240964</v>
@@ -9658,7 +9658,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>219.0574392996201</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N24" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O24" t="n">
-        <v>313.3571814962057</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N27" t="n">
-        <v>306.0417354614835</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O27" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10117,19 +10117,19 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
-        <v>227.8069106117196</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M29" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O29" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N30" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O30" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>311.6577757632308</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,13 +10351,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>260.8654321875572</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
-        <v>149.7250515977273</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N32" t="n">
         <v>379.0794664759352</v>
@@ -10366,10 +10366,10 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,22 +10427,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L33" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M33" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N33" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O33" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
@@ -10591,19 +10591,19 @@
         <v>373.0193783173885</v>
       </c>
       <c r="L35" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
-        <v>224.2837924789551</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O35" t="n">
-        <v>379.5248125622476</v>
+        <v>224.1225783053243</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10667,25 +10667,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L36" t="n">
-        <v>196.4724116665307</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N36" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O36" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10825,25 +10825,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L38" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N38" t="n">
-        <v>266.9255203461039</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O38" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10904,19 +10904,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L39" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N39" t="n">
-        <v>315.3330879923178</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O39" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
@@ -11062,25 +11062,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N41" t="n">
-        <v>266.925520346104</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O41" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11147,10 +11147,10 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M42" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O42" t="n">
         <v>92.68755888888889</v>
@@ -11159,7 +11159,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11305,16 +11305,16 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M44" t="n">
-        <v>224.2837924789551</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O44" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
         <v>144.4986984183922</v>
@@ -11378,25 +11378,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M45" t="n">
-        <v>313.0567446566288</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,10 +23740,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>239.0934730389981</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>74.73588658085532</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
@@ -23867,19 +23867,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>20.17995681083113</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23901,7 +23901,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.5715133615489</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
@@ -23946,7 +23946,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,16 +23974,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E20" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>206.4815010551934</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>383.742200450641</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>139.2257361623875</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>69.93386121503988</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>87.41444223540508</v>
@@ -24098,22 +24098,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -24150,7 +24150,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>3.400886175297046</v>
       </c>
       <c r="U22" t="n">
-        <v>52.62342870236691</v>
+        <v>110.1092644109937</v>
       </c>
       <c r="V22" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24214,16 +24214,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>360.8564822412974</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F23" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H23" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>88.25855994539717</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24287,7 +24287,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
         <v>128.7880777047345</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>204.879472876775</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>22.16097995210961</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24387,7 +24387,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>172.5142000153529</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U25" t="n">
-        <v>52.62342870236691</v>
+        <v>278.7850808340095</v>
       </c>
       <c r="V25" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>247.7888517609719</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24499,16 +24499,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>136.1361143018333</v>
       </c>
       <c r="W26" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>99.3527563441494</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
         <v>48.89338144820752</v>
@@ -24572,22 +24572,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>51.90747359025158</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24618,7 +24618,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24654,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>30.81223441176471</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>52.62342870236691</v>
+        <v>111.4693126615519</v>
       </c>
       <c r="V28" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24688,16 +24688,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>206.4815010551934</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>155.9055776048241</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24739,7 +24739,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W29" t="n">
         <v>137.3280695432443</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="30">
@@ -24776,10 +24776,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>12.12707334679274</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>32.79181940377185</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24846,13 +24846,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>10.72611481485259</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24903,10 +24903,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>203.4657960309235</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>269.6273124418883</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>90.88124479102308</v>
+        <v>147.2101988828504</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -25004,19 +25004,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>59.91195810470093</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5813703291298</v>
+        <v>108.3338844662316</v>
       </c>
       <c r="T33" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>43.89036872738151</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>193.0320095943969</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.9401713525994</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>216.6500751711488</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -25168,10 +25168,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25210,13 +25210,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>6.300854258245778</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>118.8592197488542</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>152.2735888923496</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>151.288556113008</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.1828998960996</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25368,7 +25368,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25393,7 +25393,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25402,13 +25402,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>312.0586183912103</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>50.64557536806387</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V38" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>134.8266879329269</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>96.1338512758239</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>153.2201095061298</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25599,13 +25599,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25614,10 +25614,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>98.40855070040763</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25639,13 +25639,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>155.9055776048241</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25684,10 +25684,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>23.23422713159621</v>
+        <v>50.64557536806387</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25709,7 +25709,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>1.907316296054717</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -25721,7 +25721,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>195.7483267016368</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25797,19 +25797,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>30.81223441176471</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V43" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>50.53612290998299</v>
+        <v>89.53993041887807</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.9401713525994</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25873,13 +25873,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>182.7645189471708</v>
       </c>
       <c r="G44" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25918,13 +25918,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>41.95019664609021</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25964,7 +25964,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>23.64589558530929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>128.5957162214335</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>119.7745618990223</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26073,16 +26073,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>52.62342870236691</v>
+        <v>96.87556172922666</v>
       </c>
       <c r="V46" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>232951.5378089735</v>
+        <v>434909.0243981155</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434909.0243981153</v>
+        <v>434909.0243981152</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434909.0243981152</v>
+        <v>434909.0243981153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434909.024398115</v>
+        <v>434909.0243981151</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>434909.0243981151</v>
+        <v>434909.0243981153</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434909.0243981151</v>
+        <v>434909.0243981153</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>434909.0243981151</v>
+        <v>434909.0243981153</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434909.0243981154</v>
+        <v>434909.0243981151</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="C2" t="n">
         <v>30058.26294309333</v>
@@ -26322,37 +26322,37 @@
         <v>30058.26294309333</v>
       </c>
       <c r="E2" t="n">
-        <v>30058.26294309334</v>
+        <v>30058.26294309333</v>
       </c>
       <c r="F2" t="n">
         <v>30058.26294309333</v>
       </c>
       <c r="G2" t="n">
-        <v>30058.26294309333</v>
+        <v>56117.29347072454</v>
       </c>
       <c r="H2" t="n">
-        <v>56117.29347072456</v>
+        <v>56117.29347072454</v>
       </c>
       <c r="I2" t="n">
+        <v>56117.29347072454</v>
+      </c>
+      <c r="J2" t="n">
+        <v>56117.29347072454</v>
+      </c>
+      <c r="K2" t="n">
+        <v>56117.29347072454</v>
+      </c>
+      <c r="L2" t="n">
+        <v>56117.29347072454</v>
+      </c>
+      <c r="M2" t="n">
+        <v>56117.29347072454</v>
+      </c>
+      <c r="N2" t="n">
+        <v>56117.29347072453</v>
+      </c>
+      <c r="O2" t="n">
         <v>56117.29347072455</v>
-      </c>
-      <c r="J2" t="n">
-        <v>56117.29347072457</v>
-      </c>
-      <c r="K2" t="n">
-        <v>56117.29347072455</v>
-      </c>
-      <c r="L2" t="n">
-        <v>56117.29347072455</v>
-      </c>
-      <c r="M2" t="n">
-        <v>56117.29347072455</v>
-      </c>
-      <c r="N2" t="n">
-        <v>56117.29347072454</v>
-      </c>
-      <c r="O2" t="n">
-        <v>56117.29347072457</v>
       </c>
       <c r="P2" t="n">
         <v>56117.29347072455</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>63028.85387074017</v>
       </c>
       <c r="H3" t="n">
-        <v>62045.54074104943</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55340.33862797121</v>
       </c>
       <c r="P3" t="n">
-        <v>54356.79553730534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>199.4110080167677</v>
       </c>
       <c r="H4" t="n">
         <v>199.4110080167677</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="H5" t="n">
         <v>13981.62728839959</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906661</v>
+        <v>-4996.93055105157</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-4996.930551051566</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906665</v>
+        <v>-4996.930551051566</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309333</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309333</v>
+        <v>-22194.45430898149</v>
       </c>
       <c r="H6" t="n">
-        <v>-20109.28556674123</v>
+        <v>40834.39956175867</v>
       </c>
       <c r="I6" t="n">
-        <v>41936.25517430819</v>
+        <v>40834.39956175868</v>
       </c>
       <c r="J6" t="n">
-        <v>41936.25517430821</v>
+        <v>40834.39956175868</v>
       </c>
       <c r="K6" t="n">
-        <v>41936.25517430819</v>
+        <v>40834.39956175867</v>
       </c>
       <c r="L6" t="n">
-        <v>41936.25517430819</v>
+        <v>40834.39956175867</v>
       </c>
       <c r="M6" t="n">
-        <v>41936.25517430819</v>
+        <v>40834.39956175868</v>
       </c>
       <c r="N6" t="n">
-        <v>41936.25517430819</v>
+        <v>40834.39956175866</v>
       </c>
       <c r="O6" t="n">
-        <v>41936.25517430821</v>
+        <v>-14505.93906621253</v>
       </c>
       <c r="P6" t="n">
-        <v>-12420.54036299715</v>
+        <v>40834.39956175868</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
         <v>229.9609751381512</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.456764010152508</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M20" t="n">
         <v>229.9609751381512</v>
@@ -36135,10 +36135,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O20" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="P20" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>106.4120648096125</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L23" t="n">
         <v>229.9609751381512</v>
@@ -36369,7 +36369,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="N23" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M24" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N24" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O24" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N27" t="n">
-        <v>220.6696226073169</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L31" t="n">
         <v>165.78549482202</v>
@@ -37007,7 +37007,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P31" t="n">
-        <v>121.0870361379582</v>
+        <v>121.0870361379581</v>
       </c>
       <c r="Q31" t="n">
         <v>3.456764010152483</v>
@@ -37071,13 +37071,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>117.8070290083198</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N32" t="n">
         <v>229.9609751381512</v>
@@ -37086,10 +37086,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L33" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M33" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N33" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>74.55874088122788</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L36" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N36" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>121.0870361379581</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37545,25 +37545,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L38" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N38" t="n">
-        <v>117.8070290083198</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L39" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="N39" t="n">
         <v>106.4120648096125</v>
       </c>
-      <c r="N39" t="n">
-        <v>229.9609751381512</v>
-      </c>
       <c r="O39" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N41" t="n">
-        <v>117.8070290083198</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,11 +37867,11 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M42" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="N42" t="n">
         <v>106.4120648096125</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M44" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="N44" t="n">
         <v>74.55874088122788</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L45" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M45" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M45" t="n">
-        <v>220.6696226073169</v>
-      </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P45" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
